--- a/数据整理/stocks/港股/01995-永升生活服务.xlsx
+++ b/数据整理/stocks/港股/01995-永升生活服务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>37.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.67</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.42</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010272</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富兰克林国海价值成长一年持有期混合C</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>010272</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.67</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002387</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>005894</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>华夏优势精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005894</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏优势精选股票</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01995-永升生活服务.xlsx
+++ b/数据整理/stocks/港股/01995-永升生活服务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01995-永升生活服务.xlsx
+++ b/数据整理/stocks/港股/01995-永升生活服务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01995-永升生活服务.xlsx
+++ b/数据整理/stocks/港股/01995-永升生活服务.xlsx
@@ -2005,12 +2005,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01995-永升生活服务.xlsx
+++ b/数据整理/stocks/港股/01995-永升生活服务.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,281 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4620</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000934</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3602</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006370</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3602</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3514</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0882</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="D4" t="n">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -798,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>73.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1369</t>
+          <t>3.2254</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.21</t>
+          <t>35.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4958</t>
+          <t>1.4483</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -864,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.20</t>
+          <t>39.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4251</t>
+          <t>0.9090</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -912,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>39.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.9090</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -940,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8514</t>
+          <t>0.5190</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -978,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5102</t>
+          <t>0.2736</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1016,32 +816,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010271</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富兰克林国海价值成长一年持有期混合A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5061</t>
+          <t>0.2227</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1054,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2816</t>
+          <t>0.1288</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1092,32 +892,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2293</t>
+          <t>0.0823</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1130,36 +930,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010272</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海价值成长一年持有期混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1892</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1168,36 +968,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>920008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中金进取回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1297</t>
+          <t>0.0623</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1206,36 +1006,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1244,36 +1044,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0799</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1282,36 +1082,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005894</t>
+          <t>920928</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏优势精选股票</t>
+          <t>中金进取回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1330,26 +1130,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1424,26 +1224,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2254</t>
+          <t>3.1369</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1462,26 +1262,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>37.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4483</t>
+          <t>1.4958</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1490,36 +1290,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.87</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9090</t>
+          <t>1.4251</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1538,26 +1338,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.87</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9090</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1566,36 +1366,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5190</t>
+          <t>0.8514</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1604,36 +1404,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2736</t>
+          <t>0.5102</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1642,32 +1442,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>010271</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2227</t>
+          <t>0.5061</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1680,36 +1480,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>42.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1288</t>
+          <t>0.2816</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1718,32 +1518,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0823</t>
+          <t>0.2293</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1756,36 +1556,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>010272</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.1892</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1794,36 +1594,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>920008</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0623</t>
+          <t>0.1297</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1832,36 +1632,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006373</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0842</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1870,36 +1670,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006374</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0799</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1908,36 +1708,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>920928</t>
+          <t>005894</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合C</t>
+          <t>华夏优势精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0631</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1956,26 +1756,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1989,80 +1789,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.96</v>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.84</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.78</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>